--- a/Lecture_Plan.xlsx
+++ b/Lecture_Plan.xlsx
@@ -460,9 +460,6 @@
     <t>LaTex, Markdown, ROxygen</t>
   </si>
   <si>
-    <t>How to use R</t>
-  </si>
-  <si>
     <t>Outline / Plan</t>
   </si>
   <si>
@@ -486,6 +483,9 @@
   </si>
   <si>
     <t>Worth mentioning the path control</t>
+  </si>
+  <si>
+    <t>R Fundamentals</t>
   </si>
 </sst>
 </file>
@@ -1873,10 +1873,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A8" sqref="A8"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1935,16 +1935,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="60" x14ac:dyDescent="0.25">
@@ -2027,7 +2027,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>90</v>
@@ -2042,7 +2042,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>93</v>
@@ -2057,13 +2057,13 @@
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -2090,10 +2090,10 @@
         <v>85</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="F16" s="3"/>
     </row>

--- a/Lecture_Plan.xlsx
+++ b/Lecture_Plan.xlsx
@@ -4,21 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="14880" windowHeight="7050" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="14880" windowHeight="7050" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Lecture 1 (v1)" sheetId="2" r:id="rId1"/>
-    <sheet name="Lecture 1 (v2)" sheetId="5" r:id="rId2"/>
-    <sheet name="Lecture 2 (v1)" sheetId="3" r:id="rId3"/>
-    <sheet name="Lecture 2 (v2)" sheetId="1" r:id="rId4"/>
-    <sheet name="Lecture 3" sheetId="4" r:id="rId5"/>
+    <sheet name="Lec1 (Intro)" sheetId="5" r:id="rId1"/>
+    <sheet name="Lec2 (Projects, IDEs, R)" sheetId="1" r:id="rId2"/>
+    <sheet name="Lec3 (Using R and Git)" sheetId="4" r:id="rId3"/>
+    <sheet name="Lec4 (Using R, Reports, Apps)" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="155">
   <si>
     <t>Title</t>
   </si>
@@ -486,6 +485,59 @@
   </si>
   <si>
     <t>R Fundamentals</t>
+  </si>
+  <si>
+    <t>Original Topics</t>
+  </si>
+  <si>
+    <t>Modified Topics</t>
+  </si>
+  <si>
+    <t>The apply family</t>
+  </si>
+  <si>
+    <t>S3 and S4 Objects</t>
+  </si>
+  <si>
+    <t>Overflow from previous</t>
+  </si>
+  <si>
+    <t>Difference between data.frame and data.table
+.N functionality
+Aggregating data
+Ideal format
+Merging using [] and using merge.data.table</t>
+  </si>
+  <si>
+    <t>data.table (advanced)</t>
+  </si>
+  <si>
+    <t>Reshaping data</t>
+  </si>
+  <si>
+    <t>Basic linear models</t>
+  </si>
+  <si>
+    <t>AWS exampe</t>
+  </si>
+  <si>
+    <t>Knitr Reports</t>
+  </si>
+  <si>
+    <t>Introducing Knitr
+Difference between knitr .Rmd file and .R Script
+Motivating example</t>
+  </si>
+  <si>
+    <t>path management
+knitr options
+LaTex Equations</t>
+  </si>
+  <si>
+    <t>Shiny</t>
+  </si>
+  <si>
+    <t>Lab</t>
   </si>
 </sst>
 </file>
@@ -532,7 +584,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -555,11 +607,228 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -570,12 +839,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -879,146 +1218,402 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:C30"/>
+  <dimension ref="B2:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="7" max="7" width="47.42578125" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="5" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+      <c r="D4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="D5" s="17">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="D6" s="8">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="D7" s="8">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="15" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+      <c r="D8" s="8">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+      <c r="D9" s="8">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+      <c r="D10" s="8">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+      <c r="D11" s="8">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+      <c r="D12" s="8">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+      <c r="D13" s="8">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="15" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+      <c r="D14" s="8">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+      <c r="D15" s="8">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="15" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+      <c r="D16" s="8">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="15" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+      <c r="D17" s="8">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="15" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+      <c r="D18" s="8">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="15" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+      <c r="D19" s="8">
+        <v>15</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="15" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+      <c r="D20" s="8">
+        <v>16</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="15" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+      <c r="D21" s="8">
+        <v>17</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="15" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+      <c r="D22" s="8">
+        <v>18</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="15" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+      <c r="D23" s="8">
+        <v>19</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="2:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="15" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
+      <c r="D24" s="10">
+        <v>20</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="15" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="15" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
+    <row r="30" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="16" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1030,300 +1625,477 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F23"/>
+  <dimension ref="B2:I24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="31.42578125" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" customWidth="1"/>
-    <col min="5" max="5" width="49.42578125" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" customWidth="1"/>
+    <col min="6" max="7" width="38.28515625" customWidth="1"/>
+    <col min="8" max="8" width="75.5703125" customWidth="1"/>
+    <col min="9" max="9" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="26">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="22">
+        <v>2</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="30"/>
+    </row>
+    <row r="6" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B6" s="22">
+        <v>3</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="22">
+        <v>4</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="8">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B8" s="22">
+        <v>5</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="30"/>
+    </row>
+    <row r="9" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="22">
+        <v>6</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="8">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="30"/>
+    </row>
+    <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="22">
+        <v>7</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="8">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="22">
+        <v>8</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="8">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="30"/>
+    </row>
+    <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="22">
+        <v>9</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="8">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="30"/>
+    </row>
+    <row r="13" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B13" s="22">
+        <v>10</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="30"/>
+    </row>
+    <row r="14" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B14" s="22">
+        <v>11</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="8">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="30"/>
+    </row>
+    <row r="15" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="22">
+        <v>12</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="8">
+        <v>12</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="30"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="22">
+        <v>13</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="8">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="30"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="22">
+        <v>14</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="8">
+        <v>14</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="30"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="22">
+        <v>15</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="8">
+        <v>15</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="30"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="22">
+        <v>16</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="8">
+        <v>16</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="30"/>
+    </row>
+    <row r="20" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="22">
+        <v>17</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="8">
+        <v>17</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
-        <v>13</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <v>14</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
-        <v>15</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
-        <v>16</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="2">
+      <c r="H20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="30"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="22">
+        <v>18</v>
+      </c>
+      <c r="C21" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
+      <c r="E21" s="8">
         <v>18</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
+      <c r="F21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="30"/>
+    </row>
+    <row r="22" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B22" s="22">
         <v>19</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B23" s="2">
+      <c r="C22" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="8">
+        <v>19</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" s="30"/>
+    </row>
+    <row r="23" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="24">
         <v>20</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F23" s="2"/>
+      <c r="C23" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="8">
+        <v>19</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" s="30"/>
+    </row>
+    <row r="24" spans="2:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="10">
+        <v>20</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1333,198 +2105,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:C25"/>
+  <dimension ref="B3:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="3.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>17</v>
-      </c>
-      <c r="C22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>18</v>
-      </c>
-      <c r="C23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>19</v>
-      </c>
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>20</v>
-      </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F24"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,81 +2146,83 @@
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="2:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -1643,120 +2231,118 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="2:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="F17" s="3"/>
     </row>
@@ -1765,27 +2351,27 @@
         <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>52</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>16</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -1793,75 +2379,48 @@
         <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>18</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>56</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="3" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>19</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>76</v>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
-        <v>19</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>66</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B24" s="2">
-        <v>20</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1869,327 +2428,181 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F23"/>
+  <dimension ref="C3:G13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A8" sqref="A8"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.42578125" customWidth="1"/>
-    <col min="3" max="4" width="38.28515625" customWidth="1"/>
-    <col min="5" max="5" width="75.5703125" customWidth="1"/>
-    <col min="6" max="6" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" customWidth="1"/>
+    <col min="4" max="5" width="38.28515625" customWidth="1"/>
+    <col min="6" max="6" width="75.5703125" customWidth="1"/>
+    <col min="7" max="7" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="3:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+      <c r="D7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
+      <c r="D8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
+      <c r="D9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
+      <c r="D10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="3:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
+      <c r="D11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="3:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
         <v>7</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="2:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
+      <c r="D12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
-        <v>13</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <v>14</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
-        <v>15</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
-        <v>16</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="2">
-        <v>17</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
-        <v>18</v>
-      </c>
-      <c r="C21" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
-        <v>19</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="2">
-        <v>20</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="E13" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>